--- a/Aia/Lang/ʘǀǃǂǁ/ʘǀǃǂǁ.xlsx
+++ b/Aia/Lang/ʘǀǃǂǁ/ʘǀǃǂǁ.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4646DF-0DCF-4FA4-8703-AC89E710F46E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="META" sheetId="8" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>1.Sounds</t>
   </si>
@@ -104,12 +105,6 @@
     <t>två sortes klick</t>
   </si>
   <si>
-    <t>Ш</t>
-  </si>
-  <si>
-    <t>џ</t>
-  </si>
-  <si>
     <t>Ѧ</t>
   </si>
   <si>
@@ -164,12 +159,6 @@
     <t>Ꮜ</t>
   </si>
   <si>
-    <t>Ꮨ</t>
-  </si>
-  <si>
-    <t>Ꮧ</t>
-  </si>
-  <si>
     <t>Ꮮ</t>
   </si>
   <si>
@@ -209,9 +198,6 @@
     <t>Velar</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>suction can be thought of as the same as flerp but muted</t>
   </si>
   <si>
@@ -255,12 +241,36 @@
   </si>
   <si>
     <t>Kyss</t>
+  </si>
+  <si>
+    <t>Ͼ</t>
+  </si>
+  <si>
+    <t>Ͽ</t>
+  </si>
+  <si>
+    <t>Ц</t>
+  </si>
+  <si>
+    <t>Щ</t>
+  </si>
+  <si>
+    <t>Ӫ</t>
+  </si>
+  <si>
+    <t>Ͻ</t>
+  </si>
+  <si>
+    <t>Ӛ</t>
+  </si>
+  <si>
+    <t>Ӟ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-A00044A]0"/>
   </numFmts>
@@ -594,7 +604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -634,225 +644,172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:P60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D8:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" t="s">
-        <v>38</v>
-      </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="K10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" t="s">
-        <v>30</v>
-      </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="P12" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="13" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="P13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="P14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="P15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="P16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="P17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J32" t="s">
         <v>7</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="F33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" t="s">
+        <v>72</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E34" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="J34" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G40" t="s">
         <v>8</v>
@@ -860,24 +817,24 @@
     </row>
     <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E41" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="4:11" x14ac:dyDescent="0.25">
@@ -895,58 +852,72 @@
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H60" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I60" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:X33"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
@@ -1086,7 +1057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1098,7 +1069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1110,7 +1081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1122,7 +1093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1136,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1148,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
